--- a/ZoningAtlas/raw_data/Excel_workbooks/Windsor_LudlowTown_features.xlsx
+++ b/ZoningAtlas/raw_data/Excel_workbooks/Windsor_LudlowTown_features.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tinsk\Documents\Summer Job\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ybird/ZoningAtlas/VT_Zoning_Atlas/ZoningAtlas/raw_data/Excel_workbooks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28426A57-AB27-4DCF-A5C6-D9F789D1E2B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0F9B9A5-3714-484A-B5E7-90611CC025CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{FC763E2B-1BB8-D248-8DD1-F66FE797A262}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25440" windowHeight="15280" xr2:uid="{FC763E2B-1BB8-D248-8DD1-F66FE797A262}"/>
   </bookViews>
   <sheets>
     <sheet name="Districts" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1482" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1481" uniqueCount="134">
   <si>
     <t>County</t>
   </si>
@@ -358,9 +358,6 @@
     <t>https://www.ludlow.vt.us/vertical/sites/%7B78E8DA21-0D46-4486-AF59-9D2B5A1048F3%7D/uploads/Town_Zoning__Flood_Regulations_adopted_1-7-19.pdf</t>
   </si>
   <si>
-    <t>https://www.ludlow.vt.us/vertical/sites/%7B78E8DA21-0D46-4486-AF59-9D2B5A1048F3%7D/uploads/Village_Zoning__Flood_Hazard_Regulations_Adopted_1-8-19.pdf</t>
-  </si>
-  <si>
     <t>Windsor</t>
   </si>
   <si>
@@ -427,15 +424,9 @@
     <t>Ridgeline Protection Overlay District</t>
   </si>
   <si>
-    <t>98 (Town)</t>
-  </si>
-  <si>
     <t>Tin Skoric</t>
   </si>
   <si>
-    <t>Town of Ludlow</t>
-  </si>
-  <si>
     <t>ADU height maximum: 15ft</t>
   </si>
   <si>
@@ -443,9 +434,6 @@
   </si>
   <si>
     <t>"Uses allowed as a permitted or conditional use in the underlying zoning district require the approval of the Development Review Board as a conditional use in accordance with Section 260 and the supplemental district standards set forth below" (Page 45).</t>
-  </si>
-  <si>
-    <t>100 (Village; On a different excel sheet)</t>
   </si>
   <si>
     <t>Parking spaces: "Recreation: As required by the Development Review Board" (Page 50). "The Jackson Gore Recreational District shall include 165.84 acres. This district provides for 326
@@ -1760,238 +1748,238 @@
   <dimension ref="A1:U144"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="47.625" customWidth="1"/>
-    <col min="2" max="2" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.875" customWidth="1"/>
-    <col min="4" max="4" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.875" customWidth="1"/>
-    <col min="6" max="6" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.875" customWidth="1"/>
-    <col min="8" max="8" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.875" customWidth="1"/>
-    <col min="10" max="10" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.875" customWidth="1"/>
-    <col min="12" max="12" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.875" customWidth="1"/>
-    <col min="14" max="14" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.875" customWidth="1"/>
-    <col min="16" max="16" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.875" customWidth="1"/>
-    <col min="18" max="18" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.875" customWidth="1"/>
-    <col min="20" max="20" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.875" customWidth="1"/>
+    <col min="1" max="1" width="47.6640625" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.83203125" customWidth="1"/>
+    <col min="4" max="4" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.83203125" customWidth="1"/>
+    <col min="6" max="6" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.83203125" customWidth="1"/>
+    <col min="8" max="8" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.83203125" customWidth="1"/>
+    <col min="10" max="10" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.83203125" customWidth="1"/>
+    <col min="12" max="12" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.83203125" customWidth="1"/>
+    <col min="14" max="14" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.83203125" customWidth="1"/>
+    <col min="16" max="16" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.83203125" customWidth="1"/>
+    <col min="18" max="18" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.83203125" customWidth="1"/>
+    <col min="20" max="20" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>89</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>89</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>89</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I1" s="5" t="s">
         <v>89</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K1" s="5" t="s">
         <v>89</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M1" s="5" t="s">
         <v>89</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O1" s="5" t="s">
         <v>89</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="Q1" s="5" t="s">
         <v>89</v>
       </c>
       <c r="R1" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="S1" s="5" t="s">
         <v>89</v>
       </c>
       <c r="T1" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="U1" s="5" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G2" s="6"/>
       <c r="H2" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I2" s="6"/>
       <c r="J2" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K2" s="6"/>
       <c r="L2" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M2" s="6"/>
       <c r="N2" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O2" s="6"/>
       <c r="P2" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Q2" s="6"/>
       <c r="R2" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="S2" s="6"/>
       <c r="T2" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="U2" s="6"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G3" s="6"/>
       <c r="H3" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I3" s="6"/>
       <c r="J3" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K3" s="6"/>
       <c r="L3" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M3" s="6"/>
       <c r="N3" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O3" s="6"/>
       <c r="P3" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Q3" s="6"/>
       <c r="R3" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="S3" s="6"/>
       <c r="T3" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="U3" s="6"/>
     </row>
-    <row r="4" spans="1:21" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" ht="51" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I4" s="6"/>
       <c r="J4" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K4" s="6"/>
       <c r="L4" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M4" s="6"/>
       <c r="N4" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O4" s="6"/>
       <c r="P4" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Q4" s="6"/>
       <c r="R4" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="S4" s="6"/>
       <c r="T4" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="U4" s="6"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -2036,7 +2024,7 @@
       </c>
       <c r="U5" s="6"/>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -2081,7 +2069,7 @@
       </c>
       <c r="U6" s="6"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
@@ -2126,7 +2114,7 @@
       </c>
       <c r="U7" s="6"/>
     </row>
-    <row r="8" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
@@ -2171,7 +2159,7 @@
       </c>
       <c r="U8" s="6"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
@@ -2216,7 +2204,7 @@
       </c>
       <c r="U9" s="6"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
@@ -2261,7 +2249,7 @@
       </c>
       <c r="U10" s="6"/>
     </row>
-    <row r="11" spans="1:21" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" ht="51" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>17</v>
       </c>
@@ -2306,7 +2294,7 @@
       </c>
       <c r="U11" s="6"/>
     </row>
-    <row r="12" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" ht="34" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>18</v>
       </c>
@@ -2351,7 +2339,7 @@
       </c>
       <c r="U12" s="6"/>
     </row>
-    <row r="13" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" ht="34" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>19</v>
       </c>
@@ -2396,7 +2384,7 @@
       </c>
       <c r="U13" s="6"/>
     </row>
-    <row r="14" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" ht="34" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>20</v>
       </c>
@@ -2441,7 +2429,7 @@
       </c>
       <c r="U14" s="6"/>
     </row>
-    <row r="15" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" ht="34" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>21</v>
       </c>
@@ -2486,7 +2474,7 @@
       </c>
       <c r="U15" s="6"/>
     </row>
-    <row r="16" spans="1:21" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" ht="51" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>22</v>
       </c>
@@ -2531,7 +2519,7 @@
       </c>
       <c r="U16" s="6"/>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>23</v>
       </c>
@@ -2576,7 +2564,7 @@
       </c>
       <c r="U17" s="6"/>
     </row>
-    <row r="18" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" ht="34" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>24</v>
       </c>
@@ -2621,48 +2609,48 @@
       </c>
       <c r="U18" s="6"/>
     </row>
-    <row r="19" spans="1:21" ht="363" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" ht="363" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>68</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="2"/>
       <c r="E19" s="6"/>
       <c r="F19" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G19" s="6"/>
       <c r="H19" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="I19" s="6"/>
       <c r="J19" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="K19" s="6"/>
       <c r="L19" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="M19" s="6"/>
       <c r="N19" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="O19" s="6"/>
       <c r="P19" s="9" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="Q19" s="6"/>
       <c r="R19" s="2"/>
       <c r="S19" s="6"/>
       <c r="T19" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="U19" s="6"/>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>35</v>
       </c>
@@ -2687,7 +2675,7 @@
       <c r="T20" s="6"/>
       <c r="U20" s="6"/>
     </row>
-    <row r="21" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" ht="34" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>36</v>
       </c>
@@ -2744,7 +2732,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>25</v>
       </c>
@@ -2803,7 +2791,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>26</v>
       </c>
@@ -2862,7 +2850,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>27</v>
       </c>
@@ -2921,7 +2909,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>28</v>
       </c>
@@ -2978,7 +2966,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>29</v>
       </c>
@@ -3025,7 +3013,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>30</v>
       </c>
@@ -3082,7 +3070,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>31</v>
       </c>
@@ -3137,7 +3125,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>32</v>
       </c>
@@ -3194,7 +3182,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>33</v>
       </c>
@@ -3253,7 +3241,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>34</v>
       </c>
@@ -3298,7 +3286,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>43</v>
       </c>
@@ -3343,7 +3331,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>37</v>
       </c>
@@ -3368,7 +3356,7 @@
       <c r="T33" s="6"/>
       <c r="U33" s="6"/>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>41</v>
       </c>
@@ -3407,7 +3395,7 @@
       <c r="T34" s="2"/>
       <c r="U34" s="6"/>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>42</v>
       </c>
@@ -3446,7 +3434,7 @@
       <c r="T35" s="2"/>
       <c r="U35" s="6"/>
     </row>
-    <row r="36" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" ht="34" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>36</v>
       </c>
@@ -3503,7 +3491,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>91</v>
       </c>
@@ -3560,7 +3548,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>25</v>
       </c>
@@ -3619,7 +3607,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>26</v>
       </c>
@@ -3678,7 +3666,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>27</v>
       </c>
@@ -3737,7 +3725,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>28</v>
       </c>
@@ -3794,7 +3782,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>29</v>
       </c>
@@ -3841,7 +3829,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>30</v>
       </c>
@@ -3898,7 +3886,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>44</v>
       </c>
@@ -3953,7 +3941,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>45</v>
       </c>
@@ -4008,7 +3996,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>32</v>
       </c>
@@ -4065,7 +4053,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>33</v>
       </c>
@@ -4124,7 +4112,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>34</v>
       </c>
@@ -4169,7 +4157,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>43</v>
       </c>
@@ -4214,7 +4202,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="5" t="s">
         <v>38</v>
       </c>
@@ -4239,7 +4227,7 @@
       <c r="T50" s="6"/>
       <c r="U50" s="6"/>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>41</v>
       </c>
@@ -4270,7 +4258,7 @@
       <c r="T51" s="2"/>
       <c r="U51" s="6"/>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>42</v>
       </c>
@@ -4301,7 +4289,7 @@
       <c r="T52" s="2"/>
       <c r="U52" s="6"/>
     </row>
-    <row r="53" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:21" ht="34" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>36</v>
       </c>
@@ -4350,7 +4338,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>91</v>
       </c>
@@ -4399,7 +4387,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>25</v>
       </c>
@@ -4450,7 +4438,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>26</v>
       </c>
@@ -4501,7 +4489,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>27</v>
       </c>
@@ -4552,7 +4540,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>28</v>
       </c>
@@ -4601,7 +4589,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>29</v>
       </c>
@@ -4646,7 +4634,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>30</v>
       </c>
@@ -4697,7 +4685,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>44</v>
       </c>
@@ -4744,7 +4732,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>45</v>
       </c>
@@ -4791,7 +4779,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>46</v>
       </c>
@@ -4822,7 +4810,7 @@
       <c r="T63" s="2"/>
       <c r="U63" s="6"/>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>47</v>
       </c>
@@ -4853,7 +4841,7 @@
       <c r="T64" s="2"/>
       <c r="U64" s="6"/>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>32</v>
       </c>
@@ -4902,7 +4890,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>33</v>
       </c>
@@ -4953,7 +4941,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>34</v>
       </c>
@@ -4998,7 +4986,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>43</v>
       </c>
@@ -5043,7 +5031,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="69" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:21" ht="34" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>48</v>
       </c>
@@ -5088,7 +5076,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A70" s="5" t="s">
         <v>39</v>
       </c>
@@ -5133,7 +5121,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>41</v>
       </c>
@@ -5164,7 +5152,7 @@
       <c r="T71" s="2"/>
       <c r="U71" s="6"/>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>42</v>
       </c>
@@ -5195,7 +5183,7 @@
       <c r="T72" s="2"/>
       <c r="U72" s="6"/>
     </row>
-    <row r="73" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:21" ht="34" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>36</v>
       </c>
@@ -5244,7 +5232,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>91</v>
       </c>
@@ -5293,7 +5281,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>25</v>
       </c>
@@ -5344,7 +5332,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>26</v>
       </c>
@@ -5395,7 +5383,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>27</v>
       </c>
@@ -5446,7 +5434,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>28</v>
       </c>
@@ -5495,7 +5483,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>29</v>
       </c>
@@ -5540,7 +5528,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>30</v>
       </c>
@@ -5591,7 +5579,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>44</v>
       </c>
@@ -5638,7 +5626,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>45</v>
       </c>
@@ -5685,7 +5673,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>46</v>
       </c>
@@ -5716,7 +5704,7 @@
       <c r="T83" s="2"/>
       <c r="U83" s="6"/>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>47</v>
       </c>
@@ -5747,7 +5735,7 @@
       <c r="T84" s="2"/>
       <c r="U84" s="6"/>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
         <v>32</v>
       </c>
@@ -5796,7 +5784,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>33</v>
       </c>
@@ -5847,7 +5835,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
         <v>34</v>
       </c>
@@ -5892,7 +5880,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
         <v>43</v>
       </c>
@@ -5937,7 +5925,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="89" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:21" ht="34" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
         <v>48</v>
       </c>
@@ -5982,7 +5970,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="90" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:21" ht="34" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
         <v>49</v>
       </c>
@@ -6027,7 +6015,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="5" t="s">
         <v>40</v>
       </c>
@@ -6072,7 +6060,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
         <v>41</v>
       </c>
@@ -6103,7 +6091,7 @@
       <c r="T92" s="2"/>
       <c r="U92" s="6"/>
     </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
         <v>42</v>
       </c>
@@ -6134,7 +6122,7 @@
       <c r="T93" s="2"/>
       <c r="U93" s="6"/>
     </row>
-    <row r="94" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:21" ht="34" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>36</v>
       </c>
@@ -6183,7 +6171,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>91</v>
       </c>
@@ -6232,7 +6220,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
         <v>25</v>
       </c>
@@ -6283,7 +6271,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
         <v>26</v>
       </c>
@@ -6334,7 +6322,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
         <v>27</v>
       </c>
@@ -6385,7 +6373,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
         <v>28</v>
       </c>
@@ -6434,7 +6422,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
         <v>29</v>
       </c>
@@ -6479,7 +6467,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
         <v>30</v>
       </c>
@@ -6530,7 +6518,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
         <v>44</v>
       </c>
@@ -6577,7 +6565,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
         <v>45</v>
       </c>
@@ -6624,7 +6612,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
         <v>46</v>
       </c>
@@ -6655,7 +6643,7 @@
       <c r="T104" s="2"/>
       <c r="U104" s="6"/>
     </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
         <v>47</v>
       </c>
@@ -6686,7 +6674,7 @@
       <c r="T105" s="2"/>
       <c r="U105" s="6"/>
     </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
         <v>32</v>
       </c>
@@ -6735,7 +6723,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
         <v>33</v>
       </c>
@@ -6786,7 +6774,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
         <v>34</v>
       </c>
@@ -6831,7 +6819,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
         <v>43</v>
       </c>
@@ -6876,7 +6864,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="110" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:21" ht="34" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
         <v>48</v>
       </c>
@@ -6921,7 +6909,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="111" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:21" ht="34" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
         <v>49</v>
       </c>
@@ -6966,7 +6954,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="5" t="s">
         <v>50</v>
       </c>
@@ -7011,7 +6999,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="113" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
         <v>51</v>
       </c>
@@ -7036,7 +7024,7 @@
       <c r="T113" s="10"/>
       <c r="U113" s="10"/>
     </row>
-    <row r="114" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
         <v>42</v>
       </c>
@@ -7061,7 +7049,7 @@
       <c r="T114" s="2"/>
       <c r="U114" s="6"/>
     </row>
-    <row r="115" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:21" ht="34" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
         <v>36</v>
       </c>
@@ -7106,7 +7094,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="116" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
         <v>91</v>
       </c>
@@ -7151,7 +7139,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="117" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
         <v>44</v>
       </c>
@@ -7196,7 +7184,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="118" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
         <v>45</v>
       </c>
@@ -7241,7 +7229,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="119" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
         <v>43</v>
       </c>
@@ -7286,7 +7274,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="120" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:21" ht="34" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
         <v>48</v>
       </c>
@@ -7331,7 +7319,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="121" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:21" ht="34" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
         <v>49</v>
       </c>
@@ -7376,7 +7364,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="122" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A122" s="5" t="s">
         <v>52</v>
       </c>
@@ -7421,7 +7409,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="123" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
         <v>53</v>
       </c>
@@ -7460,7 +7448,7 @@
       <c r="T123" s="2"/>
       <c r="U123" s="6"/>
     </row>
-    <row r="124" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
         <v>54</v>
       </c>
@@ -7499,7 +7487,7 @@
       <c r="T124" s="2"/>
       <c r="U124" s="6"/>
     </row>
-    <row r="125" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
         <v>55</v>
       </c>
@@ -7538,7 +7526,7 @@
       <c r="T125" s="2"/>
       <c r="U125" s="6"/>
     </row>
-    <row r="126" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
         <v>42</v>
       </c>
@@ -7577,7 +7565,7 @@
       <c r="T126" s="2"/>
       <c r="U126" s="6"/>
     </row>
-    <row r="127" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:21" ht="34" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
         <v>36</v>
       </c>
@@ -7622,7 +7610,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="128" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
         <v>31</v>
       </c>
@@ -7667,7 +7655,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="129" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
         <v>56</v>
       </c>
@@ -7706,7 +7694,7 @@
       <c r="T129" s="2"/>
       <c r="U129" s="6"/>
     </row>
-    <row r="130" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
         <v>57</v>
       </c>
@@ -7765,7 +7753,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="131" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
         <v>58</v>
       </c>
@@ -7810,7 +7798,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="132" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:21" ht="34" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
         <v>48</v>
       </c>
@@ -7869,7 +7857,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="133" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A133" s="5" t="s">
         <v>59</v>
       </c>
@@ -7914,7 +7902,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="134" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
         <v>60</v>
       </c>
@@ -7949,7 +7937,7 @@
       <c r="T134" s="2"/>
       <c r="U134" s="6"/>
     </row>
-    <row r="135" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:21" ht="34" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
         <v>36</v>
       </c>
@@ -8004,7 +7992,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="136" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
         <v>91</v>
       </c>
@@ -8049,7 +8037,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="137" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
         <v>61</v>
       </c>
@@ -8074,7 +8062,7 @@
       <c r="T137" s="2"/>
       <c r="U137" s="6"/>
     </row>
-    <row r="138" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A138" s="5" t="s">
         <v>62</v>
       </c>
@@ -8119,7 +8107,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="139" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
         <v>63</v>
       </c>
@@ -8158,7 +8146,7 @@
       </c>
       <c r="U139" s="6"/>
     </row>
-    <row r="140" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
         <v>64</v>
       </c>
@@ -8183,7 +8171,7 @@
       <c r="T140" s="2"/>
       <c r="U140" s="6"/>
     </row>
-    <row r="141" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
         <v>65</v>
       </c>
@@ -8228,7 +8216,7 @@
       </c>
       <c r="U141" s="6"/>
     </row>
-    <row r="142" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
         <v>66</v>
       </c>
@@ -8267,7 +8255,7 @@
       </c>
       <c r="U142" s="6"/>
     </row>
-    <row r="143" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A143" s="5" t="s">
         <v>67</v>
       </c>
@@ -8312,7 +8300,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="144" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
         <v>95</v>
       </c>
@@ -9106,7 +9094,7 @@
           <x14:formula1>
             <xm:f>Sheet2!B3:B4</xm:f>
           </x14:formula1>
-          <xm:sqref>C8 U8 E8 G8 I8 S8 M8 O8 Q8 K8</xm:sqref>
+          <xm:sqref>C8 K8 Q8 O8 M8 S8 I8 G8 E8 U8</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{66A8E199-9749-4EFB-B4DC-E0C16926A355}">
           <x14:formula1>
@@ -9122,166 +9110,166 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05389331-E65F-9747-B96F-F1FC2DF92AD8}">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.125" customWidth="1"/>
+    <col min="1" max="1" width="25.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>70</v>
       </c>
       <c r="B1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="4" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>73</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>75</v>
       </c>
-      <c r="B6" t="s">
-        <v>129</v>
-      </c>
-      <c r="C6" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="252" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B7">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="255" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>76</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B8" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="C8" s="7"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>77</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B9" s="8" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>78</v>
       </c>
-      <c r="B9" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="B10" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>80</v>
       </c>
-      <c r="B11" t="str">
+      <c r="B12" t="str">
         <f>Districts!B1</f>
         <v>Aquifer</v>
       </c>
-      <c r="C11" t="str">
+      <c r="C12" t="str">
         <f>Districts!D1</f>
         <v>PropMuni</v>
       </c>
-      <c r="D11" t="str">
+      <c r="D12" t="str">
         <f>Districts!F1</f>
         <v>Lakes</v>
       </c>
-      <c r="E11" t="str">
+      <c r="E12" t="str">
         <f>Districts!H1</f>
         <v>Res</v>
       </c>
-      <c r="F11" t="str">
+      <c r="F12" t="str">
         <f>Districts!J1</f>
         <v>R-C1</v>
       </c>
-      <c r="G11" t="str">
+      <c r="G12" t="str">
         <f>Districts!L1</f>
         <v>R-C2</v>
       </c>
-      <c r="H11" t="str">
+      <c r="H12" t="str">
         <f>Districts!N1</f>
         <v>MtRec</v>
       </c>
-      <c r="I11" t="str">
+      <c r="I12" t="str">
         <f>Districts!P1</f>
         <v>JacG</v>
       </c>
-      <c r="J11" t="str">
+      <c r="J12" t="str">
         <f>Districts!R1</f>
         <v>Ind</v>
       </c>
-      <c r="K11" t="str">
+      <c r="K12" t="str">
         <f>Districts!T1</f>
         <v>RPOD</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>102</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B13" s="3">
         <v>43472</v>
       </c>
-      <c r="C12" s="3">
-        <v>43473</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="C13" s="3"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>103</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B14" s="3">
         <v>42681</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B7" r:id="rId1" xr:uid="{0F4A0F19-13D3-495D-AAAD-7C9941D57606}"/>
-    <hyperlink ref="C7" r:id="rId2" xr:uid="{9E5CD8D4-1F2A-4D31-9934-444C436711D7}"/>
-    <hyperlink ref="B8" r:id="rId3" xr:uid="{FBF6AF13-5F1E-4A8A-88A9-D7ABD68E6362}"/>
+    <hyperlink ref="B8" r:id="rId1" xr:uid="{0F4A0F19-13D3-495D-AAAD-7C9941D57606}"/>
+    <hyperlink ref="B9" r:id="rId2" xr:uid="{FBF6AF13-5F1E-4A8A-88A9-D7ABD68E6362}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -9291,13 +9279,13 @@
           <x14:formula1>
             <xm:f>Sheet2!$A$1:$A$2</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B3</xm:sqref>
+          <xm:sqref>B3:B4</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D916DA62-38BE-E84F-9734-1FA42CE0016E}">
           <x14:formula1>
             <xm:f>Sheet2!$B$14:$B$15</xm:f>
           </x14:formula1>
-          <xm:sqref>B4</xm:sqref>
+          <xm:sqref>B5</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -9313,9 +9301,9 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -9326,7 +9314,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -9337,7 +9325,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>9</v>
       </c>
@@ -9345,7 +9333,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>10</v>
       </c>
@@ -9353,12 +9341,12 @@
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>81</v>
       </c>
@@ -9390,7 +9378,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>93</v>
       </c>
@@ -9422,7 +9410,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>82</v>
       </c>
@@ -9454,7 +9442,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>83</v>
       </c>
@@ -9486,12 +9474,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>97</v>
       </c>
